--- a/Analytics/Amazon Blog/amazon_topic.xlsx
+++ b/Analytics/Amazon Blog/amazon_topic.xlsx
@@ -46,418 +46,418 @@
     <t xml:space="preserve">   THE TOP 15 WORDS FOR TOPIC #9</t>
   </si>
   <si>
-    <t>0                         makers</t>
-  </si>
-  <si>
-    <t>1                     technology</t>
-  </si>
-  <si>
-    <t>2                      announced</t>
-  </si>
-  <si>
-    <t>3                     developers</t>
-  </si>
-  <si>
-    <t>4                          build</t>
-  </si>
-  <si>
-    <t>5                       products</t>
-  </si>
-  <si>
-    <t>6                          built</t>
-  </si>
-  <si>
-    <t>7                           home</t>
-  </si>
-  <si>
-    <t>8                         amazon</t>
-  </si>
-  <si>
-    <t>9                         skills</t>
-  </si>
-  <si>
-    <t>10                   experiences</t>
-  </si>
-  <si>
-    <t>11                       devices</t>
+    <t>0                          based</t>
+  </si>
+  <si>
+    <t>1                    experiences</t>
+  </si>
+  <si>
+    <t>2                  certification</t>
+  </si>
+  <si>
+    <t>3                          video</t>
+  </si>
+  <si>
+    <t>4                            tvs</t>
+  </si>
+  <si>
+    <t>5                        devices</t>
+  </si>
+  <si>
+    <t>6                       products</t>
+  </si>
+  <si>
+    <t>7                         visual</t>
+  </si>
+  <si>
+    <t>8                           home</t>
+  </si>
+  <si>
+    <t>9                            sdk</t>
+  </si>
+  <si>
+    <t>10                           new</t>
+  </si>
+  <si>
+    <t>11                           wwa</t>
+  </si>
+  <si>
+    <t>12                            tv</t>
+  </si>
+  <si>
+    <t>13                        screen</t>
+  </si>
+  <si>
+    <t>14                         smart</t>
+  </si>
+  <si>
+    <t>0                          using</t>
+  </si>
+  <si>
+    <t>1                        enabled</t>
+  </si>
+  <si>
+    <t>2                         access</t>
+  </si>
+  <si>
+    <t>3                          built</t>
+  </si>
+  <si>
+    <t>4                    development</t>
+  </si>
+  <si>
+    <t>5                            kit</t>
+  </si>
+  <si>
+    <t>6                            sdk</t>
+  </si>
+  <si>
+    <t>7                          voice</t>
+  </si>
+  <si>
+    <t>8                            new</t>
+  </si>
+  <si>
+    <t>9                         makers</t>
+  </si>
+  <si>
+    <t>10                       devices</t>
+  </si>
+  <si>
+    <t>11                       product</t>
+  </si>
+  <si>
+    <t>12                        amazon</t>
+  </si>
+  <si>
+    <t>13                      products</t>
+  </si>
+  <si>
+    <t>14                           avs</t>
+  </si>
+  <si>
+    <t>0                       building</t>
+  </si>
+  <si>
+    <t>1                       customer</t>
+  </si>
+  <si>
+    <t>2                       services</t>
+  </si>
+  <si>
+    <t>3                          skill</t>
+  </si>
+  <si>
+    <t>4                          built</t>
+  </si>
+  <si>
+    <t>5                          build</t>
+  </si>
+  <si>
+    <t>6                     experience</t>
+  </si>
+  <si>
+    <t>7                         amazon</t>
+  </si>
+  <si>
+    <t>8                     developers</t>
+  </si>
+  <si>
+    <t>9                     technology</t>
+  </si>
+  <si>
+    <t>11                   experiences</t>
+  </si>
+  <si>
+    <t>12                       devices</t>
+  </si>
+  <si>
+    <t>13                        skills</t>
+  </si>
+  <si>
+    <t>14                         voice</t>
+  </si>
+  <si>
+    <t>0                      available</t>
+  </si>
+  <si>
+    <t>1                            app</t>
+  </si>
+  <si>
+    <t>2                         skills</t>
+  </si>
+  <si>
+    <t>3                           soon</t>
+  </si>
+  <si>
+    <t>4                          using</t>
+  </si>
+  <si>
+    <t>5                         amazon</t>
+  </si>
+  <si>
+    <t>6                            api</t>
+  </si>
+  <si>
+    <t>7                         enable</t>
+  </si>
+  <si>
+    <t>8                       customer</t>
+  </si>
+  <si>
+    <t>9                            new</t>
+  </si>
+  <si>
+    <t>11                           use</t>
+  </si>
+  <si>
+    <t>12                         skill</t>
+  </si>
+  <si>
+    <t>13                          home</t>
+  </si>
+  <si>
+    <t>0                           says</t>
+  </si>
+  <si>
+    <t>1                        control</t>
+  </si>
+  <si>
+    <t>2                         report</t>
+  </si>
+  <si>
+    <t>3                         lights</t>
+  </si>
+  <si>
+    <t>4                            api</t>
+  </si>
+  <si>
+    <t>5                           make</t>
+  </si>
+  <si>
+    <t>6                          water</t>
+  </si>
+  <si>
+    <t>7                       customer</t>
+  </si>
+  <si>
+    <t>8                            use</t>
+  </si>
+  <si>
+    <t>9                           mode</t>
+  </si>
+  <si>
+    <t>11                          home</t>
+  </si>
+  <si>
+    <t>12                        enable</t>
+  </si>
+  <si>
+    <t>13                         smart</t>
+  </si>
+  <si>
+    <t>14                       devices</t>
+  </si>
+  <si>
+    <t>0                    experiences</t>
+  </si>
+  <si>
+    <t>1                     interfaces</t>
+  </si>
+  <si>
+    <t>2                         amazon</t>
+  </si>
+  <si>
+    <t>3                         create</t>
+  </si>
+  <si>
+    <t>4                      available</t>
+  </si>
+  <si>
+    <t>5                       security</t>
+  </si>
+  <si>
+    <t>6                            app</t>
+  </si>
+  <si>
+    <t>7                           view</t>
+  </si>
+  <si>
+    <t>9                           live</t>
+  </si>
+  <si>
+    <t>10                          time</t>
+  </si>
+  <si>
+    <t>11                         build</t>
+  </si>
+  <si>
+    <t>12                       cameras</t>
+  </si>
+  <si>
+    <t>13                        camera</t>
+  </si>
+  <si>
+    <t>14                          echo</t>
+  </si>
+  <si>
+    <t>0                        network</t>
+  </si>
+  <si>
+    <t>1                       products</t>
+  </si>
+  <si>
+    <t>2                      bluetooth</t>
+  </si>
+  <si>
+    <t>3                           free</t>
+  </si>
+  <si>
+    <t>4                       customer</t>
+  </si>
+  <si>
+    <t>5                      announced</t>
+  </si>
+  <si>
+    <t>6                             fi</t>
+  </si>
+  <si>
+    <t>7                             wi</t>
+  </si>
+  <si>
+    <t>8                         simple</t>
+  </si>
+  <si>
+    <t>9                         amazon</t>
+  </si>
+  <si>
+    <t>10                          home</t>
+  </si>
+  <si>
+    <t>11                           new</t>
+  </si>
+  <si>
+    <t>12                         setup</t>
+  </si>
+  <si>
+    <t>0                            avs</t>
+  </si>
+  <si>
+    <t>1                          hands</t>
+  </si>
+  <si>
+    <t>2                            say</t>
+  </si>
+  <si>
+    <t>3                         access</t>
+  </si>
+  <si>
+    <t>4                         amazon</t>
+  </si>
+  <si>
+    <t>5                           play</t>
+  </si>
+  <si>
+    <t>6                          voice</t>
+  </si>
+  <si>
+    <t>7                          local</t>
+  </si>
+  <si>
+    <t>8                        weather</t>
+  </si>
+  <si>
+    <t>9                           just</t>
+  </si>
+  <si>
+    <t>10                         built</t>
+  </si>
+  <si>
+    <t>11                     including</t>
+  </si>
+  <si>
+    <t>13                          news</t>
+  </si>
+  <si>
+    <t>14                         music</t>
+  </si>
+  <si>
+    <t>0                        devices</t>
+  </si>
+  <si>
+    <t>1                          model</t>
+  </si>
+  <si>
+    <t>2                      discovery</t>
+  </si>
+  <si>
+    <t>3                      interface</t>
+  </si>
+  <si>
+    <t>4                        support</t>
+  </si>
+  <si>
+    <t>5                          using</t>
+  </si>
+  <si>
+    <t>6                           mode</t>
+  </si>
+  <si>
+    <t>7                         skills</t>
+  </si>
+  <si>
+    <t>9                            api</t>
+  </si>
+  <si>
+    <t>11                        custom</t>
   </si>
   <si>
     <t>12                         smart</t>
   </si>
   <si>
-    <t>13                           new</t>
-  </si>
-  <si>
-    <t>14                         voice</t>
-  </si>
-  <si>
-    <t>0                        version</t>
-  </si>
-  <si>
-    <t>1                      interface</t>
-  </si>
-  <si>
-    <t>2                        support</t>
-  </si>
-  <si>
-    <t>3                         create</t>
-  </si>
-  <si>
-    <t>4                          using</t>
-  </si>
-  <si>
-    <t>5                           time</t>
-  </si>
-  <si>
-    <t>6                            avs</t>
-  </si>
-  <si>
-    <t>7                   capabilities</t>
-  </si>
-  <si>
-    <t>8                            aws</t>
-  </si>
-  <si>
-    <t>9                            use</t>
-  </si>
-  <si>
-    <t>10                          code</t>
-  </si>
-  <si>
-    <t>11                       product</t>
-  </si>
-  <si>
-    <t>12                        sample</t>
-  </si>
-  <si>
-    <t>13                   application</t>
-  </si>
-  <si>
-    <t>14                           sdk</t>
-  </si>
-  <si>
-    <t>0                       solution</t>
-  </si>
-  <si>
-    <t>1                        enabled</t>
-  </si>
-  <si>
-    <t>2                          bring</t>
-  </si>
-  <si>
-    <t>3                      developer</t>
-  </si>
-  <si>
-    <t>4                          built</t>
-  </si>
-  <si>
-    <t>5                            kit</t>
-  </si>
-  <si>
-    <t>6                         makers</t>
-  </si>
-  <si>
-    <t>7                         access</t>
-  </si>
-  <si>
-    <t>8                            new</t>
-  </si>
-  <si>
-    <t>9                    development</t>
-  </si>
-  <si>
-    <t>10                        amazon</t>
-  </si>
-  <si>
-    <t>12                      products</t>
-  </si>
-  <si>
-    <t>13                         voice</t>
-  </si>
-  <si>
-    <t>14                           avs</t>
-  </si>
-  <si>
-    <t>0                       commands</t>
-  </si>
-  <si>
-    <t>1                           time</t>
-  </si>
-  <si>
-    <t>2                           mode</t>
-  </si>
-  <si>
-    <t>3                            new</t>
-  </si>
-  <si>
-    <t>4                            use</t>
-  </si>
-  <si>
-    <t>5                        control</t>
-  </si>
-  <si>
-    <t>6                        devices</t>
-  </si>
-  <si>
-    <t>7                            api</t>
+    <t>14                         skill</t>
+  </si>
+  <si>
+    <t>0                         amazon</t>
+  </si>
+  <si>
+    <t>1                   capabilities</t>
+  </si>
+  <si>
+    <t>2                            use</t>
+  </si>
+  <si>
+    <t>3                          using</t>
+  </si>
+  <si>
+    <t>4                          cloud</t>
+  </si>
+  <si>
+    <t>5                           food</t>
+  </si>
+  <si>
+    <t>6                           time</t>
+  </si>
+  <si>
+    <t>7                    development</t>
   </si>
   <si>
     <t>8                          smart</t>
   </si>
   <si>
-    <t>9                       customer</t>
-  </si>
-  <si>
-    <t>10                        coming</t>
-  </si>
-  <si>
-    <t>11                          soon</t>
-  </si>
-  <si>
-    <t>12                        enable</t>
-  </si>
-  <si>
-    <t>13                          food</t>
-  </si>
-  <si>
-    <t>14                       cooking</t>
-  </si>
-  <si>
-    <t>0                           make</t>
-  </si>
-  <si>
-    <t>1                          power</t>
-  </si>
-  <si>
-    <t>2                        control</t>
-  </si>
-  <si>
-    <t>3                          water</t>
-  </si>
-  <si>
-    <t>4                            api</t>
-  </si>
-  <si>
-    <t>5                         lights</t>
-  </si>
-  <si>
-    <t>6                            app</t>
-  </si>
-  <si>
-    <t>7                       customer</t>
-  </si>
-  <si>
-    <t>8                         report</t>
-  </si>
-  <si>
-    <t>9                            new</t>
-  </si>
-  <si>
-    <t>10                           use</t>
-  </si>
-  <si>
-    <t>11                        enable</t>
-  </si>
-  <si>
-    <t>12                          home</t>
-  </si>
-  <si>
-    <t>13                         smart</t>
-  </si>
-  <si>
-    <t>14                       devices</t>
-  </si>
-  <si>
-    <t>0                      certified</t>
-  </si>
-  <si>
-    <t>1                            use</t>
-  </si>
-  <si>
-    <t>2                             wi</t>
-  </si>
-  <si>
-    <t>3                  certification</t>
-  </si>
-  <si>
-    <t>4                       products</t>
-  </si>
-  <si>
-    <t>5                             fi</t>
-  </si>
-  <si>
-    <t>6                       customer</t>
-  </si>
-  <si>
-    <t>7                            new</t>
-  </si>
-  <si>
-    <t>8                            wwa</t>
-  </si>
-  <si>
-    <t>9                         simple</t>
-  </si>
-  <si>
-    <t>10                          home</t>
-  </si>
-  <si>
-    <t>11                        amazon</t>
-  </si>
-  <si>
-    <t>12                         setup</t>
-  </si>
-  <si>
-    <t>0                       features</t>
-  </si>
-  <si>
-    <t>1                         enable</t>
-  </si>
-  <si>
-    <t>2                           like</t>
-  </si>
-  <si>
-    <t>3                           mode</t>
-  </si>
-  <si>
-    <t>5                        devices</t>
-  </si>
-  <si>
-    <t>6                        support</t>
-  </si>
-  <si>
-    <t>7                         custom</t>
-  </si>
-  <si>
-    <t>8                         skills</t>
-  </si>
-  <si>
-    <t>11                           api</t>
-  </si>
-  <si>
-    <t>14                         skill</t>
-  </si>
-  <si>
-    <t>0                         create</t>
-  </si>
-  <si>
-    <t>1                          music</t>
-  </si>
-  <si>
-    <t>2                          using</t>
-  </si>
-  <si>
-    <t>3                        respond</t>
-  </si>
-  <si>
-    <t>4                           sent</t>
-  </si>
-  <si>
-    <t>5                      directive</t>
-  </si>
-  <si>
-    <t>6                      interface</t>
-  </si>
-  <si>
-    <t>7                           uses</t>
-  </si>
-  <si>
-    <t>8                           wall</t>
-  </si>
-  <si>
-    <t>9                           time</t>
-  </si>
-  <si>
-    <t>10                         build</t>
-  </si>
-  <si>
-    <t>11                          wake</t>
-  </si>
-  <si>
-    <t>12                      customer</t>
-  </si>
-  <si>
-    <t>13                    interfaces</t>
-  </si>
-  <si>
-    <t>14                          echo</t>
-  </si>
-  <si>
-    <t>0                        managed</t>
-  </si>
-  <si>
-    <t>1                         makers</t>
-  </si>
-  <si>
-    <t>2                        service</t>
-  </si>
-  <si>
-    <t>3                          using</t>
-  </si>
-  <si>
-    <t>4                          smart</t>
-  </si>
-  <si>
-    <t>5                        product</t>
-  </si>
-  <si>
-    <t>6                            sdk</t>
-  </si>
-  <si>
-    <t>7                        devices</t>
-  </si>
-  <si>
-    <t>8                        connect</t>
-  </si>
-  <si>
-    <t>9                          cloud</t>
-  </si>
-  <si>
-    <t>11                   development</t>
+    <t>9                        connect</t>
+  </si>
+  <si>
+    <t>10                           kit</t>
   </si>
   <si>
     <t>12                        module</t>
   </si>
   <si>
-    <t>13                           kit</t>
+    <t>13                       cooking</t>
   </si>
   <si>
     <t>14                           ack</t>
-  </si>
-  <si>
-    <t>0                        example</t>
-  </si>
-  <si>
-    <t>1                      including</t>
-  </si>
-  <si>
-    <t>2                           news</t>
-  </si>
-  <si>
-    <t>3                           play</t>
-  </si>
-  <si>
-    <t>5                           just</t>
-  </si>
-  <si>
-    <t>6                     experience</t>
-  </si>
-  <si>
-    <t>8                          voice</t>
-  </si>
-  <si>
-    <t>9                            avs</t>
-  </si>
-  <si>
-    <t>10                          room</t>
-  </si>
-  <si>
-    <t>11                           app</t>
-  </si>
-  <si>
-    <t>12                         music</t>
-  </si>
-  <si>
-    <t>13                        amazon</t>
   </si>
 </sst>
 </file>
@@ -867,22 +867,22 @@
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
         <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -899,22 +899,22 @@
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
         <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -931,22 +931,22 @@
         <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
         <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -963,22 +963,22 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I5" t="s">
         <v>125</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -995,22 +995,22 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I6" t="s">
         <v>126</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1027,22 +1027,22 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
         <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1059,22 +1059,22 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
         <v>128</v>
       </c>
       <c r="J8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1091,22 +1091,22 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I9" t="s">
         <v>129</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1123,19 +1123,19 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s">
         <v>142</v>
@@ -1155,19 +1155,19 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
         <v>143</v>
@@ -1181,25 +1181,25 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
         <v>144</v>
@@ -1213,28 +1213,28 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" t="s">
-        <v>132</v>
-      </c>
-      <c r="J13" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1248,25 +1248,25 @@
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1280,25 +1280,25 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
         <v>120</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1312,25 +1312,25 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s">
         <v>121</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
